--- a/実行結果/お互いにDP(cost-user_int__S_f_p1_egoTwitter).xlsx
+++ b/実行結果/お互いにDP(cost-user_int__S_f_p1_egoTwitter).xlsx
@@ -1,21 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asatt\Documents\研究\お勉強\Programing\Go_diffusion_suppression2\実行結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{93027255-F37B-476E-B46D-014B6C3C226E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B992312-2C94-4529-852C-9728A7AFB6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="10320" xr2:uid="{018E0529-5D5B-49AD-B1CF-398309BE4D4F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{018E0529-5D5B-49AD-B1CF-398309BE4D4F}"/>
   </bookViews>
   <sheets>
     <sheet name="お互いにDP(cost-user_int__S_f_p1_eg" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -113,7 +127,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.000%"/>
+    <numFmt numFmtId="176" formatCode="0.000%"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -705,7 +719,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1089,7 +1103,7 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M3"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
